--- a/v1/BackEnd/business-server/src/main/resources/ReportDataFiles/user_report.xlsx
+++ b/v1/BackEnd/business-server/src/main/resources/ReportDataFiles/user_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>NAME</t>
   </si>
@@ -32,43 +32,31 @@
     <t>UPDATED_ON</t>
   </si>
   <si>
-    <t>Jhon Doe</t>
+    <t>Marley Doe</t>
   </si>
   <si>
-    <t>lucasbez14@outlook.com</t>
+    <t>user.mindhouse01@outlook.com</t>
   </si>
   <si>
     <t>ADMIN</t>
   </si>
   <si>
-    <t>ACTIVE</t>
+    <t>09/04/2023 20:18:12</t>
   </si>
   <si>
-    <t>Anna D'ville</t>
+    <t>ENABLED</t>
   </si>
   <si>
-    <t>anna.dville@mindhouse</t>
+    <t>09/05/2023 18:42:09</t>
   </si>
   <si>
-    <t>BUSINESS</t>
+    <t>Jhon Doe</t>
   </si>
   <si>
-    <t>Andrey Cravichencko</t>
+    <t>user.mindhouse02@outlook.com</t>
   </si>
   <si>
-    <t>andrey.cravichencko@mindhouse.com</t>
-  </si>
-  <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>Lian chin</t>
-  </si>
-  <si>
-    <t>lian.chin@mindhouse.com</t>
-  </si>
-  <si>
-    <t>SUPPORT</t>
+    <t>09/05/2023 18:44:34</t>
   </si>
 </sst>
 </file>
@@ -113,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,67 +137,33 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>45130.854166666664</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45130.854166666664</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45130.854166666664</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45130.854166666664</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
